--- a/InputData/fuels/BFPIaE/BAU Fuel Production Imports and Exports.xlsx
+++ b/InputData/fuels/BFPIaE/BAU Fuel Production Imports and Exports.xlsx
@@ -2956,100 +2956,100 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>209365692400000</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>189835621294696.9</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>183885761525892.1</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>186691143816704.2</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>177901952116066.2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>176411362263725.5</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>169119272573842.2</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>175533146777130.2</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>175094316803622.7</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>173623325153144.2</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>172303779764929.8</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>172073215407431.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>171227529849596.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>170909822936259.1</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>171887819504146.4</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170665462679182.4</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>169160151027962.6</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>168207601259186</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>167992576578282.5</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>166490567301234.8</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>165736437752571.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>165306743318829.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>164738796687856.9</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>164657039779616.2</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>164588291756548.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>164574542151934.9</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>164137347933858.4</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>165124310293306.3</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>164864641834460.1</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>164721698414106.3</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>164340335923854.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>164736096148230.2</v>
       </c>
     </row>
     <row r="4">
@@ -3059,100 +3059,100 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1414401040000000</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1454856355841120</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1507244078304341</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1517701467632250</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1528101241935967</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1547679852679652</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1586383219586124</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1613573110137501</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1620952274476321</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1642846750792981</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1654727073756211</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1652687736074401</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1659612359458522</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1672148371274506</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1687020678377719</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1707998078548970</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1717325898478264</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1727540997855104</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1738635382443475</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1749426187938012</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1759128283462444</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1773882292022642</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>1782542552869952</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1791456812397846</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>1801013638926452</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1809499116704577</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1816023180414549</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1824806382921751</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1839698392990490</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>1857986055742922</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1872621160136165</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1882150572087738</v>
       </c>
     </row>
     <row r="5">
@@ -3574,100 +3574,100 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>22580836759885.23</v>
+        <v>3758762925436.788</v>
       </c>
       <c r="E9" t="n">
-        <v>22427307574987.39</v>
+        <v>3733206750778.473</v>
       </c>
       <c r="F9" t="n">
-        <v>22734004831435.46</v>
+        <v>3784258989857.501</v>
       </c>
       <c r="G9" t="n">
-        <v>19990538375396.64</v>
+        <v>3327586807520.243</v>
       </c>
       <c r="H9" t="n">
-        <v>19833999789980.46</v>
+        <v>3301529693803.894</v>
       </c>
       <c r="I9" t="n">
-        <v>19436549459943.17</v>
+        <v>3235370871563.049</v>
       </c>
       <c r="J9" t="n">
-        <v>16877502512529.73</v>
+        <v>2809396808127.203</v>
       </c>
       <c r="K9" t="n">
-        <v>17048473056633.3</v>
+        <v>2837856238101.025</v>
       </c>
       <c r="L9" t="n">
-        <v>17149801911725.72</v>
+        <v>2854723245637.032</v>
       </c>
       <c r="M9" t="n">
-        <v>17361119549874.78</v>
+        <v>2889898775765.154</v>
       </c>
       <c r="N9" t="n">
-        <v>17381071304530.53</v>
+        <v>2893219906708.835</v>
       </c>
       <c r="O9" t="n">
-        <v>17446709679214.51</v>
+        <v>2904145945095.79</v>
       </c>
       <c r="P9" t="n">
-        <v>17520207926138.59</v>
+        <v>2916380322792.262</v>
       </c>
       <c r="Q9" t="n">
-        <v>17493589697138.78</v>
+        <v>2911949503271.747</v>
       </c>
       <c r="R9" t="n">
-        <v>17583698897727.6</v>
+        <v>2926948908564.632</v>
       </c>
       <c r="S9" t="n">
-        <v>17647555618200.02</v>
+        <v>2937578376197.033</v>
       </c>
       <c r="T9" t="n">
-        <v>17725697758263.46</v>
+        <v>2950585767469.022</v>
       </c>
       <c r="U9" t="n">
-        <v>17809530690600.43</v>
+        <v>2964540437145.331</v>
       </c>
       <c r="V9" t="n">
-        <v>17853351711949.9</v>
+        <v>2971834800598.495</v>
       </c>
       <c r="W9" t="n">
-        <v>17908175266509.57</v>
+        <v>2980960624699.292</v>
       </c>
       <c r="X9" t="n">
-        <v>17927270151865.77</v>
+        <v>2984139122817.213</v>
       </c>
       <c r="Y9" t="n">
-        <v>18005348514686.43</v>
+        <v>2997135897851.275</v>
       </c>
       <c r="Z9" t="n">
-        <v>18073247562894.76</v>
+        <v>3008438243631.98</v>
       </c>
       <c r="AA9" t="n">
-        <v>18095279010223.93</v>
+        <v>3012105556242.899</v>
       </c>
       <c r="AB9" t="n">
-        <v>18245855106481.73</v>
+        <v>3037170165410.805</v>
       </c>
       <c r="AC9" t="n">
-        <v>18336970933365.06</v>
+        <v>3052337131792.583</v>
       </c>
       <c r="AD9" t="n">
-        <v>18297689922151.5</v>
+        <v>3045798489748.745</v>
       </c>
       <c r="AE9" t="n">
-        <v>18150930210849.97</v>
+        <v>3021369148725.919</v>
       </c>
       <c r="AF9" t="n">
-        <v>18057218832790.58</v>
+        <v>3005770131856.582</v>
       </c>
       <c r="AG9" t="n">
-        <v>17975086563165.25</v>
+        <v>2992098551244.559</v>
       </c>
       <c r="AH9" t="n">
-        <v>17951937705343.51</v>
+        <v>2988245236618.897</v>
       </c>
       <c r="AI9" t="n">
-        <v>17445172184247.73</v>
+        <v>2903890016622.428</v>
       </c>
     </row>
     <row r="10">
@@ -3677,100 +3677,100 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>440834869998896.4</v>
+        <v>73976158075227.3</v>
       </c>
       <c r="E10" t="n">
-        <v>441467916562558.3</v>
+        <v>74082389128733.91</v>
       </c>
       <c r="F10" t="n">
-        <v>447525351560886.4</v>
+        <v>75098882603870.88</v>
       </c>
       <c r="G10" t="n">
-        <v>455999242523556.8</v>
+        <v>76520879682659.86</v>
       </c>
       <c r="H10" t="n">
-        <v>457762863357580.8</v>
+        <v>76816831528762.33</v>
       </c>
       <c r="I10" t="n">
-        <v>459526507637773.6</v>
+        <v>77112787309348.27</v>
       </c>
       <c r="J10" t="n">
-        <v>459526507637773.6</v>
+        <v>77112787309348.27</v>
       </c>
       <c r="K10" t="n">
-        <v>459526507637773.6</v>
+        <v>77112787309348.27</v>
       </c>
       <c r="L10" t="n">
-        <v>459526507637773.6</v>
+        <v>77112787309348.27</v>
       </c>
       <c r="M10" t="n">
-        <v>459526507637773.6</v>
+        <v>77112787309348.27</v>
       </c>
       <c r="N10" t="n">
-        <v>459526507637773.6</v>
+        <v>77112787309348.27</v>
       </c>
       <c r="O10" t="n">
-        <v>459526507637773.6</v>
+        <v>77112787309348.27</v>
       </c>
       <c r="P10" t="n">
-        <v>459526507637773.6</v>
+        <v>77112787309348.27</v>
       </c>
       <c r="Q10" t="n">
-        <v>459526507637773.6</v>
+        <v>77112787309348.27</v>
       </c>
       <c r="R10" t="n">
-        <v>459526507637773.6</v>
+        <v>77112787309348.27</v>
       </c>
       <c r="S10" t="n">
-        <v>459526507637773.6</v>
+        <v>77112787309348.27</v>
       </c>
       <c r="T10" t="n">
-        <v>459526507637773.6</v>
+        <v>77112787309348.27</v>
       </c>
       <c r="U10" t="n">
-        <v>459526507637773.6</v>
+        <v>77112787309348.27</v>
       </c>
       <c r="V10" t="n">
-        <v>459526507637773.6</v>
+        <v>77112787309348.27</v>
       </c>
       <c r="W10" t="n">
-        <v>459526507637773.6</v>
+        <v>77112787309348.27</v>
       </c>
       <c r="X10" t="n">
-        <v>459526507637773.6</v>
+        <v>77112787309348.27</v>
       </c>
       <c r="Y10" t="n">
-        <v>459526507637773.6</v>
+        <v>77112787309348.27</v>
       </c>
       <c r="Z10" t="n">
-        <v>459526507637773.6</v>
+        <v>77112787309348.27</v>
       </c>
       <c r="AA10" t="n">
-        <v>459526507637773.6</v>
+        <v>77112787309348.27</v>
       </c>
       <c r="AB10" t="n">
-        <v>459526507637773.6</v>
+        <v>77112787309348.27</v>
       </c>
       <c r="AC10" t="n">
-        <v>459526507637773.6</v>
+        <v>77112787309348.27</v>
       </c>
       <c r="AD10" t="n">
-        <v>459526507637773.6</v>
+        <v>77112787309348.27</v>
       </c>
       <c r="AE10" t="n">
-        <v>459526507637773.6</v>
+        <v>77112787309348.27</v>
       </c>
       <c r="AF10" t="n">
-        <v>459526507637773.6</v>
+        <v>77112787309348.27</v>
       </c>
       <c r="AG10" t="n">
-        <v>459526507637773.6</v>
+        <v>77112787309348.27</v>
       </c>
       <c r="AH10" t="n">
-        <v>459526507637773.6</v>
+        <v>77112787309348.27</v>
       </c>
       <c r="AI10" t="n">
-        <v>459526507637773.6</v>
+        <v>77112787309348.27</v>
       </c>
     </row>
     <row r="11">
@@ -3780,100 +3780,100 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>223005120569762.2</v>
+        <v>106619620381533.5</v>
       </c>
       <c r="E11" t="n">
-        <v>223325359813214.2</v>
+        <v>106772728016375.6</v>
       </c>
       <c r="F11" t="n">
-        <v>226389634248104.1</v>
+        <v>108237769608954.7</v>
       </c>
       <c r="G11" t="n">
-        <v>230676321178813.8</v>
+        <v>110287251396991.8</v>
       </c>
       <c r="H11" t="n">
-        <v>231568483989645.5</v>
+        <v>110713797926355.6</v>
       </c>
       <c r="I11" t="n">
-        <v>232460658661189.9</v>
+        <v>111140350126372.6</v>
       </c>
       <c r="J11" t="n">
-        <v>232460658661189.9</v>
+        <v>111140350126372.6</v>
       </c>
       <c r="K11" t="n">
-        <v>232460658661189.9</v>
+        <v>111140350126372.6</v>
       </c>
       <c r="L11" t="n">
-        <v>232460658661189.9</v>
+        <v>111140350126372.6</v>
       </c>
       <c r="M11" t="n">
-        <v>232460658661189.9</v>
+        <v>111140350126372.6</v>
       </c>
       <c r="N11" t="n">
-        <v>232460658661189.9</v>
+        <v>111140350126372.6</v>
       </c>
       <c r="O11" t="n">
-        <v>232460658661189.9</v>
+        <v>111140350126372.6</v>
       </c>
       <c r="P11" t="n">
-        <v>232460658661189.9</v>
+        <v>111140350126372.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>232460658661189.9</v>
+        <v>111140350126372.6</v>
       </c>
       <c r="R11" t="n">
-        <v>232460658661189.9</v>
+        <v>111140350126372.6</v>
       </c>
       <c r="S11" t="n">
-        <v>232460658661189.9</v>
+        <v>111140350126372.6</v>
       </c>
       <c r="T11" t="n">
-        <v>232460658661189.9</v>
+        <v>111140350126372.6</v>
       </c>
       <c r="U11" t="n">
-        <v>232460658661189.9</v>
+        <v>111140350126372.6</v>
       </c>
       <c r="V11" t="n">
-        <v>232460658661189.9</v>
+        <v>111140350126372.6</v>
       </c>
       <c r="W11" t="n">
-        <v>232460658661189.9</v>
+        <v>111140350126372.6</v>
       </c>
       <c r="X11" t="n">
-        <v>232460658661189.9</v>
+        <v>111140350126372.6</v>
       </c>
       <c r="Y11" t="n">
-        <v>232460658661189.9</v>
+        <v>111140350126372.6</v>
       </c>
       <c r="Z11" t="n">
-        <v>232460658661189.9</v>
+        <v>111140350126372.6</v>
       </c>
       <c r="AA11" t="n">
-        <v>232460658661189.9</v>
+        <v>111140350126372.6</v>
       </c>
       <c r="AB11" t="n">
-        <v>232460658661189.9</v>
+        <v>111140350126372.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>232460658661189.9</v>
+        <v>111140350126372.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>232460658661189.9</v>
+        <v>111140350126372.6</v>
       </c>
       <c r="AE11" t="n">
-        <v>232460658661189.9</v>
+        <v>111140350126372.6</v>
       </c>
       <c r="AF11" t="n">
-        <v>232460658661189.9</v>
+        <v>111140350126372.6</v>
       </c>
       <c r="AG11" t="n">
-        <v>232460658661189.9</v>
+        <v>111140350126372.6</v>
       </c>
       <c r="AH11" t="n">
-        <v>232460658661189.9</v>
+        <v>111140350126372.6</v>
       </c>
       <c r="AI11" t="n">
-        <v>232460658661189.9</v>
+        <v>111140350126372.6</v>
       </c>
     </row>
     <row r="12">
@@ -3883,100 +3883,100 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>128148721264603</v>
+        <v>490304915396.121</v>
       </c>
       <c r="E12" t="n">
-        <v>125928051689878.2</v>
+        <v>481808496569.5142</v>
       </c>
       <c r="F12" t="n">
-        <v>127882565042797.7</v>
+        <v>489286585267.4503</v>
       </c>
       <c r="G12" t="n">
-        <v>129580858531164.4</v>
+        <v>495784360952.7189</v>
       </c>
       <c r="H12" t="n">
-        <v>130029482404333</v>
+        <v>497500823575.2717</v>
       </c>
       <c r="I12" t="n">
-        <v>130909673622980.3</v>
+        <v>500868489492.9063</v>
       </c>
       <c r="J12" t="n">
-        <v>131678970843842.1</v>
+        <v>503811868131.9353</v>
       </c>
       <c r="K12" t="n">
-        <v>132697739708021</v>
+        <v>507709740672.7626</v>
       </c>
       <c r="L12" t="n">
-        <v>133470198497099.4</v>
+        <v>510665215666.8835</v>
       </c>
       <c r="M12" t="n">
-        <v>134744443327427.2</v>
+        <v>515540555019.1802</v>
       </c>
       <c r="N12" t="n">
-        <v>135490148341764.5</v>
+        <v>518393668420.2115</v>
       </c>
       <c r="O12" t="n">
-        <v>136381630875471.3</v>
+        <v>521804535606.0317</v>
       </c>
       <c r="P12" t="n">
-        <v>136829032629833.5</v>
+        <v>523516322326.6163</v>
       </c>
       <c r="Q12" t="n">
-        <v>137126220042202.6</v>
+        <v>524653379705.2657</v>
       </c>
       <c r="R12" t="n">
-        <v>137470405893019.8</v>
+        <v>525970256009.611</v>
       </c>
       <c r="S12" t="n">
-        <v>137876043065561.5</v>
+        <v>527522248862.9296</v>
       </c>
       <c r="T12" t="n">
-        <v>138267041380226</v>
+        <v>529018232542.6709</v>
       </c>
       <c r="U12" t="n">
-        <v>138625015919316</v>
+        <v>530387865219.224</v>
       </c>
       <c r="V12" t="n">
-        <v>138872096460620.5</v>
+        <v>531333210617.1716</v>
       </c>
       <c r="W12" t="n">
-        <v>139216627692839.6</v>
+        <v>532651408372.0731</v>
       </c>
       <c r="X12" t="n">
-        <v>139528267988485</v>
+        <v>533843763374.0004</v>
       </c>
       <c r="Y12" t="n">
-        <v>140006435255409.6</v>
+        <v>535673260844.1357</v>
       </c>
       <c r="Z12" t="n">
-        <v>140569008423379.9</v>
+        <v>537825700500.2151</v>
       </c>
       <c r="AA12" t="n">
-        <v>141076719084060.6</v>
+        <v>539768232817.9332</v>
       </c>
       <c r="AB12" t="n">
-        <v>141748060825805.1</v>
+        <v>542336827749.1951</v>
       </c>
       <c r="AC12" t="n">
-        <v>142417702228340.7</v>
+        <v>544898917077.7184</v>
       </c>
       <c r="AD12" t="n">
-        <v>143149034062802</v>
+        <v>547697037805.6002</v>
       </c>
       <c r="AE12" t="n">
-        <v>143838495044242.2</v>
+        <v>550334958066.0449</v>
       </c>
       <c r="AF12" t="n">
-        <v>144729685332147.6</v>
+        <v>553744707101.3947</v>
       </c>
       <c r="AG12" t="n">
-        <v>145484662508733.7</v>
+        <v>556633296367.3596</v>
       </c>
       <c r="AH12" t="n">
-        <v>146305023041465.1</v>
+        <v>559772046388.6309</v>
       </c>
       <c r="AI12" t="n">
-        <v>147061780260660.6</v>
+        <v>562667446207.4629</v>
       </c>
     </row>
     <row r="13">
@@ -3986,100 +3986,100 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>13676990242261.1</v>
+        <v>735967125267.13</v>
       </c>
       <c r="E13" t="n">
-        <v>13439983771926.65</v>
+        <v>723213663609.8439</v>
       </c>
       <c r="F13" t="n">
-        <v>13648584059096.54</v>
+        <v>734438571353.3574</v>
       </c>
       <c r="G13" t="n">
-        <v>13829838645483.91</v>
+        <v>744191990382.1149</v>
       </c>
       <c r="H13" t="n">
-        <v>13877719141482.8</v>
+        <v>746768468859.6517</v>
       </c>
       <c r="I13" t="n">
-        <v>13971659733241.86</v>
+        <v>751823468975.7717</v>
       </c>
       <c r="J13" t="n">
-        <v>14053764887934.74</v>
+        <v>756241597057.9443</v>
       </c>
       <c r="K13" t="n">
-        <v>14162495522754.91</v>
+        <v>762092458345.3796</v>
       </c>
       <c r="L13" t="n">
-        <v>14244938103660.27</v>
+        <v>766528743536.33</v>
       </c>
       <c r="M13" t="n">
-        <v>14380935044860.02</v>
+        <v>773846821277.6324</v>
       </c>
       <c r="N13" t="n">
-        <v>14460522262774.08</v>
+        <v>778129457657.3263</v>
       </c>
       <c r="O13" t="n">
-        <v>14555667948149.12</v>
+        <v>783249304590.5107</v>
       </c>
       <c r="P13" t="n">
-        <v>14603418010486.05</v>
+        <v>785818764353.7303</v>
       </c>
       <c r="Q13" t="n">
-        <v>14635136074458.78</v>
+        <v>787525532578.871</v>
       </c>
       <c r="R13" t="n">
-        <v>14671870163388.41</v>
+        <v>789502216143.7468</v>
       </c>
       <c r="S13" t="n">
-        <v>14715162797103.38</v>
+        <v>791831818974.2002</v>
       </c>
       <c r="T13" t="n">
-        <v>14756893062389.17</v>
+        <v>794077349813.5887</v>
       </c>
       <c r="U13" t="n">
-        <v>14795098783287.49</v>
+        <v>796133222785.6562</v>
       </c>
       <c r="V13" t="n">
-        <v>14821469067119.64</v>
+        <v>797552223723.7764</v>
       </c>
       <c r="W13" t="n">
-        <v>14858240017736.34</v>
+        <v>799530890838.3506</v>
       </c>
       <c r="X13" t="n">
-        <v>14891500601537.54</v>
+        <v>801320662989.3341</v>
       </c>
       <c r="Y13" t="n">
-        <v>14942534189538.73</v>
+        <v>804066811256.4613</v>
       </c>
       <c r="Z13" t="n">
-        <v>15002576206758.71</v>
+        <v>807297708553.74</v>
       </c>
       <c r="AA13" t="n">
-        <v>15056762886762.19</v>
+        <v>810213526610.4575</v>
       </c>
       <c r="AB13" t="n">
-        <v>15128413499897.1</v>
+        <v>814069089482.001</v>
       </c>
       <c r="AC13" t="n">
-        <v>15199882640111.01</v>
+        <v>817914887185.7983</v>
       </c>
       <c r="AD13" t="n">
-        <v>15277935844739.79</v>
+        <v>822114977381.8875</v>
       </c>
       <c r="AE13" t="n">
-        <v>15351520278689.05</v>
+        <v>826074600322.2263</v>
       </c>
       <c r="AF13" t="n">
-        <v>15446634773405.79</v>
+        <v>831192768867.2046</v>
       </c>
       <c r="AG13" t="n">
-        <v>15527211585842.16</v>
+        <v>835528655927.2644</v>
       </c>
       <c r="AH13" t="n">
-        <v>15614766599193.68</v>
+        <v>840240044203.3148</v>
       </c>
       <c r="AI13" t="n">
-        <v>15695533391094.22</v>
+        <v>844586154173.359</v>
       </c>
     </row>
     <row r="14">
@@ -4089,100 +4089,100 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>51908392126514.13</v>
+        <v>33324822007599.33</v>
       </c>
       <c r="E14" t="n">
-        <v>51982933483147.26</v>
+        <v>33372677033352.19</v>
       </c>
       <c r="F14" t="n">
-        <v>52696197638441.66</v>
+        <v>33830587595514.37</v>
       </c>
       <c r="G14" t="n">
-        <v>53693999955959.62</v>
+        <v>34471169653017</v>
       </c>
       <c r="H14" t="n">
-        <v>53901666653957.52</v>
+        <v>34604490209947.73</v>
       </c>
       <c r="I14" t="n">
-        <v>54109336112746.39</v>
+        <v>34737812539286.82</v>
       </c>
       <c r="J14" t="n">
-        <v>54109336112746.39</v>
+        <v>34737812539286.82</v>
       </c>
       <c r="K14" t="n">
-        <v>54109336112746.39</v>
+        <v>34737812539286.82</v>
       </c>
       <c r="L14" t="n">
-        <v>54109336112746.39</v>
+        <v>34737812539286.82</v>
       </c>
       <c r="M14" t="n">
-        <v>54109336112746.39</v>
+        <v>34737812539286.82</v>
       </c>
       <c r="N14" t="n">
-        <v>54109336112746.39</v>
+        <v>34737812539286.82</v>
       </c>
       <c r="O14" t="n">
-        <v>54109336112746.39</v>
+        <v>34737812539286.82</v>
       </c>
       <c r="P14" t="n">
-        <v>54109336112746.39</v>
+        <v>34737812539286.82</v>
       </c>
       <c r="Q14" t="n">
-        <v>54109336112746.39</v>
+        <v>34737812539286.82</v>
       </c>
       <c r="R14" t="n">
-        <v>54109336112746.39</v>
+        <v>34737812539286.82</v>
       </c>
       <c r="S14" t="n">
-        <v>54109336112746.39</v>
+        <v>34737812539286.82</v>
       </c>
       <c r="T14" t="n">
-        <v>54109336112746.39</v>
+        <v>34737812539286.82</v>
       </c>
       <c r="U14" t="n">
-        <v>54109336112746.39</v>
+        <v>34737812539286.82</v>
       </c>
       <c r="V14" t="n">
-        <v>54109336112746.39</v>
+        <v>34737812539286.82</v>
       </c>
       <c r="W14" t="n">
-        <v>54109336112746.39</v>
+        <v>34737812539286.82</v>
       </c>
       <c r="X14" t="n">
-        <v>54109336112746.39</v>
+        <v>34737812539286.82</v>
       </c>
       <c r="Y14" t="n">
-        <v>54109336112746.39</v>
+        <v>34737812539286.82</v>
       </c>
       <c r="Z14" t="n">
-        <v>54109336112746.39</v>
+        <v>34737812539286.82</v>
       </c>
       <c r="AA14" t="n">
-        <v>54109336112746.39</v>
+        <v>34737812539286.82</v>
       </c>
       <c r="AB14" t="n">
-        <v>54109336112746.39</v>
+        <v>34737812539286.82</v>
       </c>
       <c r="AC14" t="n">
-        <v>54109336112746.39</v>
+        <v>34737812539286.82</v>
       </c>
       <c r="AD14" t="n">
-        <v>54109336112746.39</v>
+        <v>34737812539286.82</v>
       </c>
       <c r="AE14" t="n">
-        <v>54109336112746.39</v>
+        <v>34737812539286.82</v>
       </c>
       <c r="AF14" t="n">
-        <v>54109336112746.39</v>
+        <v>34737812539286.82</v>
       </c>
       <c r="AG14" t="n">
-        <v>54109336112746.39</v>
+        <v>34737812539286.82</v>
       </c>
       <c r="AH14" t="n">
-        <v>54109336112746.39</v>
+        <v>34737812539286.82</v>
       </c>
       <c r="AI14" t="n">
-        <v>54109336112746.39</v>
+        <v>34737812539286.82</v>
       </c>
     </row>
     <row r="15">
@@ -4501,100 +4501,100 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1885631209000000</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>2022426746904565</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>2097872112006415</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>2156047588478837</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2167245201327788</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2182592867687610</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>2182312069658720</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>2193300814125931</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>2192137865603556</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>2173106105545353</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>2174271630871874</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>2190081281403505</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>2200655823010062</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>2215491147082773</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>2213733987524435</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>2198235467687634</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>2185054083761488</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>2165083925256452</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>2135913029869314</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>2112519550245427</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>2100663895240679</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>2124289802598495</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>2138132468091365</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>2139336866348995</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>2131751712043178</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>2107371463677496</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>2072605811129542</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>2033530269590716</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>1990018575657886</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>1950576097208734</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>1905458907047275</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>1825572235943132</v>
       </c>
     </row>
     <row r="19">
@@ -4604,100 +4604,100 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>9416185722296.994</v>
+        <v>6265495785837.5</v>
       </c>
       <c r="E19" t="n">
-        <v>10099295009385.01</v>
+        <v>6720034224834.257</v>
       </c>
       <c r="F19" t="n">
-        <v>10476042894281.48</v>
+        <v>6970720899328.416</v>
       </c>
       <c r="G19" t="n">
-        <v>10766550968359.21</v>
+        <v>7164023916873.588</v>
       </c>
       <c r="H19" t="n">
-        <v>10822467948163.55</v>
+        <v>7201230872179.417</v>
       </c>
       <c r="I19" t="n">
-        <v>10899108850243.54</v>
+        <v>7252227450110.954</v>
       </c>
       <c r="J19" t="n">
-        <v>10897706642654.98</v>
+        <v>7251294426273.481</v>
       </c>
       <c r="K19" t="n">
-        <v>10952580606484.31</v>
+        <v>7287807362537.123</v>
       </c>
       <c r="L19" t="n">
-        <v>10946773246476.75</v>
+        <v>7283943166276.843</v>
       </c>
       <c r="M19" t="n">
-        <v>10851735263187.71</v>
+        <v>7220705237315.656</v>
       </c>
       <c r="N19" t="n">
-        <v>10857555490857.99</v>
+        <v>7224577995671.979</v>
       </c>
       <c r="O19" t="n">
-        <v>10936503381039.23</v>
+        <v>7277109635108.534</v>
       </c>
       <c r="P19" t="n">
-        <v>10989308959998.81</v>
+        <v>7312246275590.942</v>
       </c>
       <c r="Q19" t="n">
-        <v>11063391403083.31</v>
+        <v>7361540464197.631</v>
       </c>
       <c r="R19" t="n">
-        <v>11054616760053.41</v>
+        <v>7355701848589.625</v>
       </c>
       <c r="S19" t="n">
-        <v>10977222548233.27</v>
+        <v>7304204021092.545</v>
       </c>
       <c r="T19" t="n">
-        <v>10911399306375.01</v>
+        <v>7260405474989.476</v>
       </c>
       <c r="U19" t="n">
-        <v>10811675287972.25</v>
+        <v>7194049475280.408</v>
       </c>
       <c r="V19" t="n">
-        <v>10666005993075.16</v>
+        <v>7097121655436.918</v>
       </c>
       <c r="W19" t="n">
-        <v>10549187100930.22</v>
+        <v>7019390788817.845</v>
       </c>
       <c r="X19" t="n">
-        <v>10489984087715.68</v>
+        <v>6979997318813.715</v>
       </c>
       <c r="Y19" t="n">
-        <v>10607963643037.61</v>
+        <v>7058500486495.948</v>
       </c>
       <c r="Z19" t="n">
-        <v>10677089094796.34</v>
+        <v>7104496311075.206</v>
       </c>
       <c r="AA19" t="n">
-        <v>10683103440349.88</v>
+        <v>7108498234766.133</v>
       </c>
       <c r="AB19" t="n">
-        <v>10645225820731.07</v>
+        <v>7083294604219.935</v>
       </c>
       <c r="AC19" t="n">
-        <v>10523479349060.86</v>
+        <v>7002284944078.669</v>
       </c>
       <c r="AD19" t="n">
-        <v>10349871784874.44</v>
+        <v>6886767101304.62</v>
       </c>
       <c r="AE19" t="n">
-        <v>10154742135676.46</v>
+        <v>6756928541318.825</v>
       </c>
       <c r="AF19" t="n">
-        <v>9937459885993.852</v>
+        <v>6612349721415.133</v>
       </c>
       <c r="AG19" t="n">
-        <v>9740497881625.098</v>
+        <v>6481291918952.683</v>
       </c>
       <c r="AH19" t="n">
-        <v>9515198342775.301</v>
+        <v>6331378423950.996</v>
       </c>
       <c r="AI19" t="n">
-        <v>9116272122068.762</v>
+        <v>6065934365346.853</v>
       </c>
     </row>
     <row r="20">
@@ -4707,100 +4707,100 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>65064453237819.65</v>
+        <v>24260855262890.79</v>
       </c>
       <c r="E20" t="n">
-        <v>65157886927715.48</v>
+        <v>24295694274277.77</v>
       </c>
       <c r="F20" t="n">
-        <v>66051926222272.27</v>
+        <v>24629058451569.77</v>
       </c>
       <c r="G20" t="n">
-        <v>67302619213696.55</v>
+        <v>25095409586994.66</v>
       </c>
       <c r="H20" t="n">
-        <v>67562918552732.23</v>
+        <v>25192468492051.28</v>
       </c>
       <c r="I20" t="n">
-        <v>67823221352274.94</v>
+        <v>25289528687441.66</v>
       </c>
       <c r="J20" t="n">
-        <v>67823221352274.94</v>
+        <v>25289528687441.66</v>
       </c>
       <c r="K20" t="n">
-        <v>67823221352274.94</v>
+        <v>25289528687441.66</v>
       </c>
       <c r="L20" t="n">
-        <v>67823221352274.94</v>
+        <v>25289528687441.66</v>
       </c>
       <c r="M20" t="n">
-        <v>67823221352274.94</v>
+        <v>25289528687441.66</v>
       </c>
       <c r="N20" t="n">
-        <v>67823221352274.94</v>
+        <v>25289528687441.66</v>
       </c>
       <c r="O20" t="n">
-        <v>67823221352274.94</v>
+        <v>25289528687441.66</v>
       </c>
       <c r="P20" t="n">
-        <v>67823221352274.94</v>
+        <v>25289528687441.66</v>
       </c>
       <c r="Q20" t="n">
-        <v>67823221352274.94</v>
+        <v>25289528687441.66</v>
       </c>
       <c r="R20" t="n">
-        <v>67823221352274.94</v>
+        <v>25289528687441.66</v>
       </c>
       <c r="S20" t="n">
-        <v>67823221352274.94</v>
+        <v>25289528687441.66</v>
       </c>
       <c r="T20" t="n">
-        <v>67823221352274.94</v>
+        <v>25289528687441.66</v>
       </c>
       <c r="U20" t="n">
-        <v>67823221352274.94</v>
+        <v>25289528687441.66</v>
       </c>
       <c r="V20" t="n">
-        <v>67823221352274.94</v>
+        <v>25289528687441.66</v>
       </c>
       <c r="W20" t="n">
-        <v>67823221352274.94</v>
+        <v>25289528687441.66</v>
       </c>
       <c r="X20" t="n">
-        <v>67823221352274.94</v>
+        <v>25289528687441.66</v>
       </c>
       <c r="Y20" t="n">
-        <v>67823221352274.94</v>
+        <v>25289528687441.66</v>
       </c>
       <c r="Z20" t="n">
-        <v>67823221352274.94</v>
+        <v>25289528687441.66</v>
       </c>
       <c r="AA20" t="n">
-        <v>67823221352274.94</v>
+        <v>25289528687441.66</v>
       </c>
       <c r="AB20" t="n">
-        <v>67823221352274.94</v>
+        <v>25289528687441.66</v>
       </c>
       <c r="AC20" t="n">
-        <v>67823221352274.94</v>
+        <v>25289528687441.66</v>
       </c>
       <c r="AD20" t="n">
-        <v>67823221352274.94</v>
+        <v>25289528687441.66</v>
       </c>
       <c r="AE20" t="n">
-        <v>67823221352274.94</v>
+        <v>25289528687441.66</v>
       </c>
       <c r="AF20" t="n">
-        <v>67823221352274.94</v>
+        <v>25289528687441.66</v>
       </c>
       <c r="AG20" t="n">
-        <v>67823221352274.94</v>
+        <v>25289528687441.66</v>
       </c>
       <c r="AH20" t="n">
-        <v>67823221352274.94</v>
+        <v>25289528687441.66</v>
       </c>
       <c r="AI20" t="n">
-        <v>67823221352274.94</v>
+        <v>25289528687441.66</v>
       </c>
     </row>
     <row r="21">
@@ -4810,100 +4810,100 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>16011377471318.09</v>
+        <v>2665223289301.621</v>
       </c>
       <c r="E21" t="n">
-        <v>17732372166001.74</v>
+        <v>2951696776623.495</v>
       </c>
       <c r="F21" t="n">
-        <v>20052126309913.72</v>
+        <v>3337838617379.136</v>
       </c>
       <c r="G21" t="n">
-        <v>28309264641297.52</v>
+        <v>4712306081106.823</v>
       </c>
       <c r="H21" t="n">
-        <v>31628527341317.62</v>
+        <v>5264824205624.907</v>
       </c>
       <c r="I21" t="n">
-        <v>34073676932645.18</v>
+        <v>5671839132873.142</v>
       </c>
       <c r="J21" t="n">
-        <v>41602361206168.45</v>
+        <v>6925049526515.884</v>
       </c>
       <c r="K21" t="n">
-        <v>42448704337425.13</v>
+        <v>7065930186422.033</v>
       </c>
       <c r="L21" t="n">
-        <v>43619077127812.26</v>
+        <v>7260748204028.104</v>
       </c>
       <c r="M21" t="n">
-        <v>44646327682049.72</v>
+        <v>7431742367772.361</v>
       </c>
       <c r="N21" t="n">
-        <v>46443693631530.41</v>
+        <v>7730928468189.698</v>
       </c>
       <c r="O21" t="n">
-        <v>48925727329032.84</v>
+        <v>8144083053250.536</v>
       </c>
       <c r="P21" t="n">
-        <v>49619788258580.29</v>
+        <v>8259615108936.431</v>
       </c>
       <c r="Q21" t="n">
-        <v>49919381549782.01</v>
+        <v>8309484835539.261</v>
       </c>
       <c r="R21" t="n">
-        <v>50073653456945.68</v>
+        <v>8335164642326.287</v>
       </c>
       <c r="S21" t="n">
-        <v>50284324438866.08</v>
+        <v>8370232531294.622</v>
       </c>
       <c r="T21" t="n">
-        <v>51658310794477.4</v>
+        <v>8598943673775.513</v>
       </c>
       <c r="U21" t="n">
-        <v>52691373024630.05</v>
+        <v>8770905237984.021</v>
       </c>
       <c r="V21" t="n">
-        <v>53539418478683.23</v>
+        <v>8912069263289.012</v>
       </c>
       <c r="W21" t="n">
-        <v>54567604433723.88</v>
+        <v>9083219132063.018</v>
       </c>
       <c r="X21" t="n">
-        <v>55620578394991.25</v>
+        <v>9258495164973.066</v>
       </c>
       <c r="Y21" t="n">
-        <v>56760721232004.62</v>
+        <v>9448281162322.881</v>
       </c>
       <c r="Z21" t="n">
-        <v>58193439959323.85</v>
+        <v>9686768783135.648</v>
       </c>
       <c r="AA21" t="n">
-        <v>60029128589604.61</v>
+        <v>9992334003747.971</v>
       </c>
       <c r="AB21" t="n">
-        <v>61824665957981.77</v>
+        <v>10291215722050.01</v>
       </c>
       <c r="AC21" t="n">
-        <v>63888735320270.3</v>
+        <v>10634796762779.32</v>
       </c>
       <c r="AD21" t="n">
-        <v>66602615695389.83</v>
+        <v>11086544102638.38</v>
       </c>
       <c r="AE21" t="n">
-        <v>68884096176166.09</v>
+        <v>11466314982585.75</v>
       </c>
       <c r="AF21" t="n">
-        <v>70912582995333.22</v>
+        <v>11803973021200.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>72482457994434.12</v>
+        <v>12065291412849.88</v>
       </c>
       <c r="AH21" t="n">
-        <v>74059014345346.19</v>
+        <v>12327721969550.85</v>
       </c>
       <c r="AI21" t="n">
-        <v>77290466013199.03</v>
+        <v>12865623237498.72</v>
       </c>
     </row>
     <row r="22">
@@ -5254,100 +5254,100 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>235377000000000</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>214641431154002.5</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>202788353144550.7</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>195519725116725.4</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>183079706115855.6</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>180531817722032.5</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>170415543570941.8</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>179077719694635.7</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>178702013018597.7</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>178239080128136.2</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>177447809271028.6</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>176991655294808.7</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>175819949259753.8</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>175447569273112.1</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>176790401047617.7</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>175247654070709.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>173197199893225.8</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>171917073075455.1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>171644221777230.8</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>169707000574671.5</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>168584232442120</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>168049409584577.9</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>167290485028141.6</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>166655066430866.2</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>166036072054824.3</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>165998683413621.4</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>165220614701225.1</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>166595918311850.8</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>166398995037647.4</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>166213035192649.6</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>165514932561214.3</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>166050906160371.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -5460,100 +5460,100 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>152657000000000</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>149974502735497.9</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>147543098104672.6</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>144783917258308.9</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>145178958822293</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>145763738923575.3</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>141403458396523.8</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>128316669408855.1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>128369599519107.5</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>128436882944776.7</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>128503877134870.8</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>128632243498566.9</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>128833587613317.9</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>128970576812598.2</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>126039987733511.4</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122903336384354</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>123169035414575.9</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>123366565235179.6</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>123406497821773.7</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>123446321945027.2</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>123446321945027.2</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>121836906741553.7</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>122073700291484.1</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>122244945829196.1</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>120754749914354.7</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>120897596134031.8</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>121052391398407.2</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>121132979660533.2</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>121213531768212.4</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>121263714140500.9</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>121324345147941.6</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>121411965449988.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -5872,100 +5872,100 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>160945163240114.8</v>
+        <v>19326237074563.21</v>
       </c>
       <c r="E9" t="n">
-        <v>169369061988729.1</v>
+        <v>20392089890451.63</v>
       </c>
       <c r="F9" t="n">
-        <v>180815259968903.5</v>
+        <v>21819387239645.82</v>
       </c>
       <c r="G9" t="n">
-        <v>200017794603040</v>
+        <v>24346379643049.21</v>
       </c>
       <c r="H9" t="n">
-        <v>212061635355780.2</v>
+        <v>25867692854172.34</v>
       </c>
       <c r="I9" t="n">
-        <v>218158555622114.1</v>
+        <v>26650765157224.65</v>
       </c>
       <c r="J9" t="n">
-        <v>229917772377915.8</v>
+        <v>28233991708191.65</v>
       </c>
       <c r="K9" t="n">
-        <v>232433092224198.1</v>
+        <v>28543429980244.02</v>
       </c>
       <c r="L9" t="n">
-        <v>236693612245329</v>
+        <v>29075222461323.34</v>
       </c>
       <c r="M9" t="n">
-        <v>240697497205001.3</v>
+        <v>29570260372182.91</v>
       </c>
       <c r="N9" t="n">
-        <v>246762595910836.6</v>
+        <v>30332353350850.04</v>
       </c>
       <c r="O9" t="n">
-        <v>255428972295006.2</v>
+        <v>31419792452596.56</v>
       </c>
       <c r="P9" t="n">
-        <v>258230447536907.6</v>
+        <v>31769189467670.24</v>
       </c>
       <c r="Q9" t="n">
-        <v>258721503832331.8</v>
+        <v>31832040090180.02</v>
       </c>
       <c r="R9" t="n">
-        <v>259607503146656.4</v>
+        <v>31939821462906.46</v>
       </c>
       <c r="S9" t="n">
-        <v>260533863048261.9</v>
+        <v>32053747375550.81</v>
       </c>
       <c r="T9" t="n">
-        <v>265576861129839.8</v>
+        <v>32684907688127.8</v>
       </c>
       <c r="U9" t="n">
-        <v>269509423538468.2</v>
+        <v>33176159291383.88</v>
       </c>
       <c r="V9" t="n">
-        <v>272473956145731.4</v>
+        <v>33547273673920.5</v>
       </c>
       <c r="W9" t="n">
-        <v>276128496912898.2</v>
+        <v>34004733921368.44</v>
       </c>
       <c r="X9" t="n">
-        <v>279544140851289.3</v>
+        <v>34433597454059.29</v>
       </c>
       <c r="Y9" t="n">
-        <v>283639433624435.4</v>
+        <v>34945552308079.37</v>
       </c>
       <c r="Z9" t="n">
-        <v>288681380097809.4</v>
+        <v>35576996951094.41</v>
       </c>
       <c r="AA9" t="n">
-        <v>294657779029428.2</v>
+        <v>36327848155195.09</v>
       </c>
       <c r="AB9" t="n">
-        <v>301843007942372.2</v>
+        <v>37225525057515.61</v>
       </c>
       <c r="AC9" t="n">
-        <v>309438633723431.6</v>
+        <v>38177242510885.56</v>
       </c>
       <c r="AD9" t="n">
-        <v>317971878287892.4</v>
+        <v>39252202785977.12</v>
       </c>
       <c r="AE9" t="n">
-        <v>324154833747975.4</v>
+        <v>40035900998225.92</v>
       </c>
       <c r="AF9" t="n">
-        <v>329770010589402.2</v>
+        <v>40746023026667.66</v>
       </c>
       <c r="AG9" t="n">
-        <v>333723432107962.8</v>
+        <v>41246648566455.33</v>
       </c>
       <c r="AH9" t="n">
-        <v>338106725369089.8</v>
+        <v>41798946970879.18</v>
       </c>
       <c r="AI9" t="n">
-        <v>343294096737890.8</v>
+        <v>42472056841411.69</v>
       </c>
     </row>
     <row r="10">
@@ -5975,100 +5975,100 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>47830841924772.7</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>48050844998437.3</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>46053399006488.33</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>42992884635585.22</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>40468191521989.75</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>37835452488495.83</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>35442777862277.44</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>33603806876705.62</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>32018362965114.98</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>30615648495120.69</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>29348403527238.28</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>28284941317340.16</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>27370839823367.56</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>26423944559431.28</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>25545994292823.41</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>24711378650810.41</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>23894728600091.36</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>23258359105549.31</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>22718433107218.62</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>22269903771669.86</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>21920359094593.73</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>21736728179234.31</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>21628011863051.67</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>21622638511566.28</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>21707185393392.56</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>21856489323569.23</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>22041184971719.67</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>22320812195518.25</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>22667702138835.42</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>23041558214640.03</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>23460871282402.97</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>23941044476501.11</v>
       </c>
     </row>
     <row r="11">
@@ -6181,100 +6181,100 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>9560695084603.879</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>12482583290482.39</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>13319410712752.88</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>15969517538458.73</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>15103329031962.45</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>14783346799431.65</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>15864018455570.58</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15995908571258.75</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>15683060707286.57</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>14954206836634.11</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>14574239557904.03</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>16190873500777.06</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>15278306644500.56</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>15053321071873.12</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14660101239442.5</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>13876087769863.66</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>12569144889447.7</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>12865567726006.03</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>12722784432507.49</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>11766244792805.03</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>10554388245721.77</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>9588598475378.445</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>9452674700783.895</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>8324767414587.096</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>8067428287285.583</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>7824212238620.516</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>7687642782954.164</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>7303857390783.607</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>5034401560956.39</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>4740442680090.64</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>5896207354360.433</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>5857684413075.576</v>
       </c>
     </row>
     <row r="13">
@@ -6284,100 +6284,100 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1370032874732.87</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1993233366887.749</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2158916966367.349</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2705805601913.23</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2522095094543.237</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>2450699404218.45</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2673332640502.248</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>2695933625121.715</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>2626565156945.211</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>2467550851274.535</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>2384250959678.147</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>2718581353515.428</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2525159165020.266</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>2476549106265.431</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>2392456451593.011</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>2226176607992.092</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1950398974423.971</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>2010739971435.853</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1979601468090.028</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1777473924570.959</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1522012001537.151</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1317285917475.481</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>1286025726438.234</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1047184948509.928</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>989946961882.365</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>935676605591.0876</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>903447221655.0308</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>819625239164.1301</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>339699285707.4341</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>274375035886.5398</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>512490292875.3368</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>500679094622.7887</v>
       </c>
     </row>
     <row r="14">
@@ -6799,100 +6799,100 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>730543453331090.1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>735271549542886</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>733600007749461.5</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>731165873510316.5</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>728152112159874.6</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>722881899995518.4</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>718370227612011.1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>715554374597270.8</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>711149684883586.8</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>709869388509246.2</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>707857134762501.2</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>707637464960927.1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>706711651917692.1</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>705673862399579.2</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>703955859012204.5</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>704578279191430.9</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>704327916695713.6</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>703357985305515.6</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>703626824879934.9</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>704115891257261.4</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>704982431675887</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>705812574938441.8</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>708072329346468.9</v>
+        <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>710573130883092.5</v>
+        <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>713458820340826.9</v>
+        <v>0</v>
       </c>
       <c r="AC18" t="n">
-        <v>716752830189543.6</v>
+        <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>720905620852109</v>
+        <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>724695361887205.9</v>
+        <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>728982466698797</v>
+        <v>0</v>
       </c>
       <c r="AG18" t="n">
-        <v>733352430260409.1</v>
+        <v>0</v>
       </c>
       <c r="AH18" t="n">
-        <v>737866503511731.1</v>
+        <v>0</v>
       </c>
       <c r="AI18" t="n">
-        <v>742610656727471.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -7552,100 +7552,100 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>86224092400000</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>77542197304274.27</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>77793482893803.97</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>84401575241891.23</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>82120597359075.28</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>81962979944299.94</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>79963396255444.5</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>81845501308163.56</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>81603228862443.42</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>80374428661529.06</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>79468850480720.61</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>79476931065073.5</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>79244244041021.62</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>79121354239649.55</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>79396824846022.17</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>78981583122073.19</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>78549002485956.97</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>78266173482349.48</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>78193895736895.92</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>77705377660930.23</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>77538643925245.27</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>77388751436444.11</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>77217849479160.25</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>77468522938959.89</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>77723612664936.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>77729423582802</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>77699289638900.23</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>77966737827047.48</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>77810093228062.84</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>77764437957565.61</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>77748300085688.34</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>77863656334493.14</v>
       </c>
     </row>
     <row r="4">
@@ -7655,100 +7655,100 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1327743040000000</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1368306359036364</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1418691672889590</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1429711913795313</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1440290049953110</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1460202419055626</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1499093923128585</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1526602477069195</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1534577410576298</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1556601897073571</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1568488996407212</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1567189073381860</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1573559703419984</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1585358512188650</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1599500534157943</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1619173108525940</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1628035992186165</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1637741306809348</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1647989768593796</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1658106982817564</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1667185888169165</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1681102888184688</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>1689162461244984</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1697524803390660</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>1706499363361998</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1714590051215412</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1720637964323558</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1728855519778990</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1742769408844550</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>1759974598028048</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1773503921440812</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1782261764887815</v>
       </c>
     </row>
     <row r="5">
@@ -8273,100 +8273,100 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>127125869998896.4</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>126918713767967.2</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>135502552282485.5</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>148196378234046.8</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>155700032024173.1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>163481967022358.4</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>169644203710860.3</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>174380399076584.4</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>178463645721368.2</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>182076280082837.1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>185340018222922.8</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>188078922115186.2</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>190433153526949.5</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>192871843966367.5</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>195132969354787.6</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>197282488170949.8</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>199385737333649.9</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>201024681218347</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>202415238780804.9</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>203570407936318.7</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>204470646109008.9</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>204943580101525.7</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>205223574575023.4</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>205237413424359.9</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>205019666351114.2</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>204635140120012.6</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>204159463951273.3</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>203439295350530.9</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>202545894337222.3</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>201583043140783.8</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>200503119300816.9</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>199266452667968.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -8376,100 +8376,100 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>50394120569762.22</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>49029103840889.97</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>53822182831863</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>57662271112730.66</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>60276318046021.78</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>61629995373733.78</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>62324786850313.78</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>62475872954814.75</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>63355189268795.84</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>63749894696074.91</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>64658397186642.38</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>65937995393257.16</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>66618665173399.5</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>67364748095705.59</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>68025619417916.12</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>68351000153591.97</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>68666451571460.09</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>68700251370462.25</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>69116901593057.81</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>69374843204552.5</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>69668771070889.88</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>69502098946314.91</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>69456765091273.44</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>69140792133480.09</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>68777338983260.59</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>68180897901047.03</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>67823843644525.84</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>67123656235642.25</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>66580311929665.31</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>66157202635687.69</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>65685469773293.94</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>65416214757266.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -8685,100 +8685,100 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>31580392126514.13</v>
+        <v>25874822007599.33</v>
       </c>
       <c r="E14" t="n">
-        <v>31256936977501.48</v>
+        <v>25776815464724.63</v>
       </c>
       <c r="F14" t="n">
-        <v>32066773649730.18</v>
+        <v>26270118847191.83</v>
       </c>
       <c r="G14" t="n">
-        <v>33212310989822.15</v>
+        <v>26964844249744.46</v>
       </c>
       <c r="H14" t="n">
-        <v>33400162918874.38</v>
+        <v>27090902900504.14</v>
       </c>
       <c r="I14" t="n">
-        <v>33501394444843.28</v>
+        <v>27185216837502.18</v>
       </c>
       <c r="J14" t="n">
-        <v>33326637247957.31</v>
+        <v>27121170147380.16</v>
       </c>
       <c r="K14" t="n">
-        <v>33157604566358.39</v>
+        <v>27059221432410.07</v>
       </c>
       <c r="L14" t="n">
-        <v>32978840768352.65</v>
+        <v>26993706364762.36</v>
       </c>
       <c r="M14" t="n">
-        <v>32778521903987.49</v>
+        <v>26920291590090.95</v>
       </c>
       <c r="N14" t="n">
-        <v>32583871596793.18</v>
+        <v>26848954282505.47</v>
       </c>
       <c r="O14" t="n">
-        <v>32384587957577.68</v>
+        <v>26775918907055.08</v>
       </c>
       <c r="P14" t="n">
-        <v>32188387610564.69</v>
+        <v>26704013526041.37</v>
       </c>
       <c r="Q14" t="n">
-        <v>31982982153437.15</v>
+        <v>26628734568170.44</v>
       </c>
       <c r="R14" t="n">
-        <v>31784565865022.72</v>
+        <v>26556017067743.07</v>
       </c>
       <c r="S14" t="n">
-        <v>31588208835284.37</v>
+        <v>26484054264144.55</v>
       </c>
       <c r="T14" t="n">
-        <v>31402881150248.62</v>
+        <v>26416133600354.89</v>
       </c>
       <c r="U14" t="n">
-        <v>31220116346934.74</v>
+        <v>26349152205988.09</v>
       </c>
       <c r="V14" t="n">
-        <v>31031705369696.49</v>
+        <v>26280101547761.75</v>
       </c>
       <c r="W14" t="n">
-        <v>30848375389409.01</v>
+        <v>26212913021928.33</v>
       </c>
       <c r="X14" t="n">
-        <v>30660009178663.71</v>
+        <v>26143878770154.79</v>
       </c>
       <c r="Y14" t="n">
-        <v>30456528680733.38</v>
+        <v>26069305289754.31</v>
       </c>
       <c r="Z14" t="n">
-        <v>30248151847635.73</v>
+        <v>25992937353578.71</v>
       </c>
       <c r="AA14" t="n">
-        <v>30038107462675.39</v>
+        <v>25915958277036.28</v>
       </c>
       <c r="AB14" t="n">
-        <v>29813122260690.2</v>
+        <v>25833503546871.51</v>
       </c>
       <c r="AC14" t="n">
-        <v>29578394750674.97</v>
+        <v>25747478362415.91</v>
       </c>
       <c r="AD14" t="n">
-        <v>29330494700106.76</v>
+        <v>25656625579223.6</v>
       </c>
       <c r="AE14" t="n">
-        <v>29074290465094.78</v>
+        <v>25562729399036.7</v>
       </c>
       <c r="AF14" t="n">
-        <v>28806127980651.32</v>
+        <v>25464450645145.33</v>
       </c>
       <c r="AG14" t="n">
-        <v>28533746254246.54</v>
+        <v>25364625583077.46</v>
       </c>
       <c r="AH14" t="n">
-        <v>28257738441912.14</v>
+        <v>25263471598332.71</v>
       </c>
       <c r="AI14" t="n">
-        <v>27977108489179.79</v>
+        <v>25160623647336.25</v>
       </c>
     </row>
     <row r="15">
@@ -9097,100 +9097,100 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1569822951793763</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1704574570451989</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1780742530080176</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1839970263866473</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1852470702324740</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1870096640443954</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1871766203322446</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1883972219163562</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1884713383771857</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1866235085886020</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1868270492868339</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1884175104947952</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1895149868337825</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>1910433820753680</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1909419340707652</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1893651753464723</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1880578599299698</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1861027734596490</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1831740621950710</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1808135722732852</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>1795905469039748</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>1819172511916904</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>1832038303141640</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>1832161624330823</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>1823329008899553</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>1797524785676797</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>1760963914000251</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>1720250096865223</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>1674885120841048</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>1633553541106879</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>1586484952161542</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>1504547420493046</v>
       </c>
     </row>
     <row r="19">
@@ -9200,100 +9200,100 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>9331185722296.994</v>
+        <v>6265495785837.5</v>
       </c>
       <c r="E19" t="n">
-        <v>10018221895718.75</v>
+        <v>6720034224834.257</v>
       </c>
       <c r="F19" t="n">
-        <v>10396704164597.03</v>
+        <v>6970720899328.416</v>
       </c>
       <c r="G19" t="n">
-        <v>10698668626774.07</v>
+        <v>7164023916873.588</v>
       </c>
       <c r="H19" t="n">
-        <v>10739868630475.17</v>
+        <v>7201230872179.417</v>
       </c>
       <c r="I19" t="n">
-        <v>10815178527859.95</v>
+        <v>7252227450110.954</v>
       </c>
       <c r="J19" t="n">
-        <v>10813206274558.24</v>
+        <v>7251294426273.481</v>
       </c>
       <c r="K19" t="n">
-        <v>10871423486081.38</v>
+        <v>7287807362537.123</v>
       </c>
       <c r="L19" t="n">
-        <v>10866930108995.86</v>
+        <v>7283943166276.843</v>
       </c>
       <c r="M19" t="n">
-        <v>10777144016254.59</v>
+        <v>7220705237315.656</v>
       </c>
       <c r="N19" t="n">
-        <v>10783277983369.99</v>
+        <v>7224577995671.979</v>
       </c>
       <c r="O19" t="n">
-        <v>10856529580018.93</v>
+        <v>7277109635108.534</v>
       </c>
       <c r="P19" t="n">
-        <v>10909855731336.53</v>
+        <v>7312246275590.942</v>
       </c>
       <c r="Q19" t="n">
-        <v>10984187500537.47</v>
+        <v>7361540464197.631</v>
       </c>
       <c r="R19" t="n">
-        <v>10975988168949.11</v>
+        <v>7355701848589.625</v>
       </c>
       <c r="S19" t="n">
-        <v>10898856141419.37</v>
+        <v>7304204021092.545</v>
       </c>
       <c r="T19" t="n">
-        <v>10833853985813.88</v>
+        <v>7260405474989.476</v>
       </c>
       <c r="U19" t="n">
-        <v>10739449945051.59</v>
+        <v>7194049475280.408</v>
       </c>
       <c r="V19" t="n">
-        <v>10594334041470.87</v>
+        <v>7097121655436.918</v>
       </c>
       <c r="W19" t="n">
-        <v>10479163199853.88</v>
+        <v>7019390788817.845</v>
       </c>
       <c r="X19" t="n">
-        <v>10420839808198.42</v>
+        <v>6979997318813.715</v>
       </c>
       <c r="Y19" t="n">
-        <v>10540278460120.18</v>
+        <v>7058500486495.948</v>
       </c>
       <c r="Z19" t="n">
-        <v>10608437099654.36</v>
+        <v>7104496311075.206</v>
       </c>
       <c r="AA19" t="n">
-        <v>10617553449066.06</v>
+        <v>7108498234766.133</v>
       </c>
       <c r="AB19" t="n">
-        <v>10580435563841.33</v>
+        <v>7083294604219.935</v>
       </c>
       <c r="AC19" t="n">
-        <v>10461079243025.95</v>
+        <v>7002284944078.669</v>
       </c>
       <c r="AD19" t="n">
-        <v>10286050299550.04</v>
+        <v>6886767101304.62</v>
       </c>
       <c r="AE19" t="n">
-        <v>10093761204672.63</v>
+        <v>6756928541318.825</v>
       </c>
       <c r="AF19" t="n">
-        <v>9876965973636.895</v>
+        <v>6612349721415.133</v>
       </c>
       <c r="AG19" t="n">
-        <v>9680400245944.35</v>
+        <v>6481291918952.683</v>
       </c>
       <c r="AH19" t="n">
-        <v>9455699163249.26</v>
+        <v>6331378423950.996</v>
       </c>
       <c r="AI19" t="n">
-        <v>9057453323634.506</v>
+        <v>6065934365346.853</v>
       </c>
     </row>
     <row r="20">
@@ -9303,100 +9303,100 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>19539453237819.65</v>
+        <v>16910855262890.79</v>
       </c>
       <c r="E20" t="n">
-        <v>15644127318783.2</v>
+        <v>16301710021105.84</v>
       </c>
       <c r="F20" t="n">
-        <v>15715487284415</v>
+        <v>16502252824040.92</v>
       </c>
       <c r="G20" t="n">
-        <v>15880033377085.62</v>
+        <v>16793245811067.36</v>
       </c>
       <c r="H20" t="n">
-        <v>15111225561750.32</v>
+        <v>16724155620360.63</v>
       </c>
       <c r="I20" t="n">
-        <v>14614948456608.22</v>
+        <v>16699066177103.38</v>
       </c>
       <c r="J20" t="n">
-        <v>14088943444082.88</v>
+        <v>16614142797815.92</v>
       </c>
       <c r="K20" t="n">
-        <v>13656845033173.61</v>
+        <v>16544380616153.47</v>
       </c>
       <c r="L20" t="n">
-        <v>13251140489582.48</v>
+        <v>16478879717847.16</v>
       </c>
       <c r="M20" t="n">
-        <v>12766399298914.67</v>
+        <v>16400618372401.62</v>
       </c>
       <c r="N20" t="n">
-        <v>12279447546361.64</v>
+        <v>16322000132285.97</v>
       </c>
       <c r="O20" t="n">
-        <v>11688152440996.72</v>
+        <v>16226535683643.86</v>
       </c>
       <c r="P20" t="n">
-        <v>11185195254028.8</v>
+        <v>16145333370097.14</v>
       </c>
       <c r="Q20" t="n">
-        <v>10722269772457.81</v>
+        <v>16070594165494.25</v>
       </c>
       <c r="R20" t="n">
-        <v>10276086579263.45</v>
+        <v>15998557999212.46</v>
       </c>
       <c r="S20" t="n">
-        <v>9798327381872.477</v>
+        <v>15921423894856.09</v>
       </c>
       <c r="T20" t="n">
-        <v>9287796302543.711</v>
+        <v>15838998778259.35</v>
       </c>
       <c r="U20" t="n">
-        <v>8897420737271.43</v>
+        <v>15775972739714.57</v>
       </c>
       <c r="V20" t="n">
-        <v>8503083072008.141</v>
+        <v>15712307021105.34</v>
       </c>
       <c r="W20" t="n">
-        <v>8110158716802.625</v>
+        <v>15648869481055.69</v>
       </c>
       <c r="X20" t="n">
-        <v>7674569309254.938</v>
+        <v>15578543678848.64</v>
       </c>
       <c r="Y20" t="n">
-        <v>7209276231347.867</v>
+        <v>15503422226402.36</v>
       </c>
       <c r="Z20" t="n">
-        <v>6777745560376.336</v>
+        <v>15433751706212.56</v>
       </c>
       <c r="AA20" t="n">
-        <v>6230069793631.898</v>
+        <v>15345329589011.65</v>
       </c>
       <c r="AB20" t="n">
-        <v>5780637195261.984</v>
+        <v>15272768807067.25</v>
       </c>
       <c r="AC20" t="n">
-        <v>5266482243990.219</v>
+        <v>15189758617240.83</v>
       </c>
       <c r="AD20" t="n">
-        <v>4746178789988.523</v>
+        <v>15105755753168.07</v>
       </c>
       <c r="AE20" t="n">
-        <v>4138056839234.969</v>
+        <v>15007574614496.16</v>
       </c>
       <c r="AF20" t="n">
-        <v>3630859722093.758</v>
+        <v>14925687765270.73</v>
       </c>
       <c r="AG20" t="n">
-        <v>3125438302204.609</v>
+        <v>14844087601927.83</v>
       </c>
       <c r="AH20" t="n">
-        <v>2509694140797.633</v>
+        <v>14744675859229.51</v>
       </c>
       <c r="AI20" t="n">
-        <v>2102370934405.289</v>
+        <v>14678913628213.94</v>
       </c>
     </row>
     <row r="21">
